--- a/biology/Médecine/Marguerite_Bottard/Marguerite_Bottard.xlsx
+++ b/biology/Médecine/Marguerite_Bottard/Marguerite_Bottard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marguerite Bottard (Charny, 29 janvier 1822 - Paris, 14 novembre 1906) est une infirmière française, qui a travaillé à l'hôpital de la Salpêtrière à Paris de 1841 à 1901.
 </t>
@@ -513,16 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance
-Marguerite Bottard naît à Charny, en Côte-d'Or, le 29 janvier 1822[1],[2],[3]. Ses parents sont Anne Bouchard et son époux Philippe Bottard, dont le métier est laboureur[3]. Elle est issue d'une famille nombreuse[4].
-Vie professionnelle
-Devenue infirmière à la Salpêtrière le 12 janvier 1841 — d'abord en tant que « fille de service »[3],[5] —, elle travaille dans cet hôpital jusqu'en 1901, soit durant soixante ans[1]. Elle évolue au fil de sa carrière : elle devient ainsi suppléante dès 1841[3], puis sous-surveillante en 1852[3], puis surveillante en chef du service des professeurs Trélat (père) et Jean-Pierre Falret, le 1er octobre 1861 et, à partir de 1866, elle dirige l'infirmerie du service des épileptiques et des hystériques — service alors sous l'autorité du professeur Jean-Martin Charcot[1] —.
-Son travail et son engagement sont reconnus[6],[7].
-Elle prend sa retraite en 1901 tout en prévoyant de loger dans le pavillon des « Reposantes » de l'hôpital dans lequel elle a travaillé[4],[8].
-Vie privée
-Selon Jules Claretie dans un article du Journal du 31 octobre 1900, Marguerite Bottard a été fiancée à un jeune homme qui est ensuite mort du choléra, drame à la suite duquel elle a décidé de ne jamais se marier[4]. Par ailleurs, selon le même auteur, elle a pris en charge le fils de l'une de ses sœurs et l'a élevé comme son enfant[4].
-Mort
-Elle meurt le 14 novembre 1906[6],[3] à la Salpêtrière[3], à Paris[1].
+          <t>Enfance</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marguerite Bottard naît à Charny, en Côte-d'Or, le 29 janvier 1822. Ses parents sont Anne Bouchard et son époux Philippe Bottard, dont le métier est laboureur. Elle est issue d'une famille nombreuse.
 </t>
         </is>
       </c>
@@ -548,15 +557,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Prix et distinctions</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1888 : palmes académiques[7],[4]
-1891 : médaille d'or de l'Assistance publique[7] pour cinquante ans de service[4],[5],[9]
-1893 : médaille de bronze du ministère de l'Intérieur[4] (annoncée dès 1891[9])
-1898 : chevalière de la Légion d'honneur[7],[3],[5]</t>
+          <t>Vie professionnelle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Devenue infirmière à la Salpêtrière le 12 janvier 1841 — d'abord en tant que « fille de service », —, elle travaille dans cet hôpital jusqu'en 1901, soit durant soixante ans. Elle évolue au fil de sa carrière : elle devient ainsi suppléante dès 1841, puis sous-surveillante en 1852, puis surveillante en chef du service des professeurs Trélat (père) et Jean-Pierre Falret, le 1er octobre 1861 et, à partir de 1866, elle dirige l'infirmerie du service des épileptiques et des hystériques — service alors sous l'autorité du professeur Jean-Martin Charcot —.
+Son travail et son engagement sont reconnus,.
+Elle prend sa retraite en 1901 tout en prévoyant de loger dans le pavillon des « Reposantes » de l'hôpital dans lequel elle a travaillé,.
+</t>
         </is>
       </c>
     </row>
@@ -581,12 +596,123 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Jules Claretie dans un article du Journal du 31 octobre 1900, Marguerite Bottard a été fiancée à un jeune homme qui est ensuite mort du choléra, drame à la suite duquel elle a décidé de ne jamais se marier. Par ailleurs, selon le même auteur, elle a pris en charge le fils de l'une de ses sœurs et l'a élevé comme son enfant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marguerite_Bottard</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marguerite_Bottard</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mort</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle meurt le 14 novembre 1906, à la Salpêtrière, à Paris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marguerite_Bottard</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marguerite_Bottard</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1888 : palmes académiques,
+1891 : médaille d'or de l'Assistance publique pour cinquante ans de service
+1893 : médaille de bronze du ministère de l'Intérieur (annoncée dès 1891)
+1898 : chevalière de la Légion d'honneur</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marguerite_Bottard</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marguerite_Bottard</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Elle est une référence pour le personnage d'infirmière joué par Mélanie Laurent dans son film Le Bal des folles (2021)[10].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Elle est une référence pour le personnage d'infirmière joué par Mélanie Laurent dans son film Le Bal des folles (2021).
 Elle est interprétée par Josiane Balasko dans le film Captives (2024).</t>
         </is>
       </c>
